--- a/image/consent.xlsx
+++ b/image/consent.xlsx
@@ -1144,45 +1144,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.8046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.84375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.6875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.10546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.09375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.68359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/consent.xlsx
+++ b/image/consent.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="315">
   <si>
     <t>Path</t>
   </si>
@@ -125,12 +125,12 @@
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
     <t>Consent</t>
   </si>
   <si>
@@ -143,10 +143,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>A healthcare consumer's  choices to permit or deny recipients or roles to perform actions for specific purposes and periods of time</t>
-  </si>
-  <si>
-    <t>A record of a healthcare consumer’s  choices, which permits or denies identified recipient(s) or recipient role(s) to perform one or more actions within a given policy context, for specific purposes and periods of time.</t>
+    <t>A healthcare consumer's  or third party's choices to permit or deny recipients or roles to perform actions for specific purposes and periods of time</t>
+  </si>
+  <si>
+    <t>A record of a healthcare consumer’s  choices  or choices made on their behalf by a third party, which permits or denies identified recipient(s) or recipient role(s) to perform one or more actions within a given policy context, for specific purposes and periods of time.</t>
   </si>
   <si>
     <t>Broadly, there are 3 key areas of consent for patients: Consent around sharing information (aka Privacy Consent Directive - Authorization to Collect, Use, or Disclose information), consent for specific treatment, or kinds of treatment, and general advance care directives.</t>
@@ -162,7 +162,7 @@
     <t>CON</t>
   </si>
   <si>
-    <t>FinancialConsent</t>
+    <t>Entity. Role, or Act</t>
   </si>
   <si>
     <t>Consent.id</t>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -369,9 +369,6 @@
     <t>Event.identifier</t>
   </si>
   <si>
-    <t>.id</t>
-  </si>
-  <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>HL7 Table 0498 - Consent Status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
@@ -454,9 +448,6 @@
     <t>HL7 Table 0497 - Consent Type</t>
   </si>
   <si>
-    <t>CNTRCT</t>
-  </si>
-  <si>
     <t>FiveWs.class</t>
   </si>
   <si>
@@ -479,9 +470,6 @@
     <t>Event.subject</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>FiveWs.subject</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
     <t>Field 13/ Consent Decision Date</t>
   </si>
   <si>
-    <t>FinancialConsent effectiveTime</t>
-  </si>
-  <si>
     <t>FiveWs.recorded</t>
   </si>
   <si>
@@ -562,23 +547,33 @@
     <t>FiveWs.witness</t>
   </si>
   <si>
-    <t>Consent.source[x]</t>
-  </si>
-  <si>
-    <t>Attachment
-Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)</t>
+    <t>Consent.sourceAttachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
   </si>
   <si>
     <t>Source from which this consent is taken</t>
   </si>
   <si>
-    <t>The source on which this consent statement is based. The source might be a scanned original paper form, or a reference to a consent that links back to such a source, a reference to a document repository (e.g. XDS) that stores the original consent document.</t>
+    <t>The source on which this consent statement is based. The source might be a scanned original paper form.</t>
   </si>
   <si>
     <t>The source can be contained inline (Attachment), referenced directly (Consent), referenced in a consent repository (DocumentReference), or simply by an identifier (Identifier), e.g. a CDA document id.</t>
   </si>
   <si>
     <t>Field 19 Informational Material Supplied Indicator</t>
+  </si>
+  <si>
+    <t>Consent.sourceReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Consent|DocumentReference|Contract|QuestionnaireResponse)
+</t>
+  </si>
+  <si>
+    <t>A reference to a consent that links back to such a source, a reference to a document repository (e.g. XDS) that stores the original consent document.</t>
   </si>
   <si>
     <t>Consent.policy</t>
@@ -599,10 +594,6 @@
   </si>
   <si>
     <t>Consent.policy.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1135,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM58"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1144,45 +1135,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="131.59375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1409,10 +1400,10 @@
         <v>48</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1962,10 +1953,10 @@
         <v>40</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -2073,10 +2064,10 @@
         <v>40</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -2184,10 +2175,10 @@
         <v>40</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -2297,10 +2288,10 @@
         <v>40</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -2411,12 +2402,12 @@
         <v>113</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2442,16 +2433,16 @@
         <v>70</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2476,14 +2467,14 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="Y12" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2500,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>51</v>
@@ -2515,21 +2506,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AM12" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2552,13 +2543,13 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2585,14 +2576,14 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="X13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2609,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>51</v>
@@ -2638,7 +2629,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2661,13 +2652,13 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2694,13 +2685,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2718,7 +2709,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>51</v>
@@ -2733,21 +2724,21 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2770,16 +2761,16 @@
         <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2829,7 +2820,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2844,21 +2835,21 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2881,16 +2872,16 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2940,7 +2931,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2955,25 +2946,25 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2992,16 +2983,16 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3051,7 +3042,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3066,25 +3057,25 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3103,13 +3094,13 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3160,7 +3151,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3175,21 +3166,21 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3200,7 +3191,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3209,19 +3200,19 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3271,25 +3262,25 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3300,7 +3291,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3323,15 +3314,17 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3380,7 +3373,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3392,13 +3385,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3409,7 +3402,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3420,7 +3413,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3432,13 +3425,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3489,19 +3482,19 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>40</v>
@@ -3510,7 +3503,7 @@
         <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>40</v>
@@ -3518,18 +3511,18 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
@@ -3541,17 +3534,15 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3600,13 +3591,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3621,19 +3612,19 @@
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3646,26 +3637,24 @@
         <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3713,7 +3702,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3734,47 +3723,51 @@
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3822,16 +3815,16 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
@@ -3846,12 +3839,12 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3877,14 +3870,12 @@
         <v>64</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3933,7 +3924,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3942,7 +3933,7 @@
         <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
@@ -3962,7 +3953,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3982,23 +3973,21 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -4022,13 +4011,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4046,7 +4035,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4055,7 +4044,7 @@
         <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
@@ -4075,7 +4064,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4086,7 +4075,7 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4098,16 +4087,20 @@
         <v>52</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4131,13 +4124,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4155,19 +4148,19 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>40</v>
@@ -4184,7 +4177,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4195,7 +4188,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4204,16 +4197,16 @@
         <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4264,19 +4257,19 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
@@ -4285,7 +4278,7 @@
         <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4293,18 +4286,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4316,17 +4309,15 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4375,13 +4366,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4396,19 +4387,19 @@
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4421,26 +4412,24 @@
         <v>40</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N30" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4488,7 +4477,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4509,47 +4498,51 @@
         <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4597,13 +4590,13 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
@@ -4621,12 +4614,12 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4634,7 +4627,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>51</v>
@@ -4646,16 +4639,16 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4706,10 +4699,10 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>51</v>
@@ -4735,7 +4728,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4758,13 +4751,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4815,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4844,7 +4837,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4864,16 +4857,16 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4924,7 +4917,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4936,7 +4929,7 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
@@ -4953,7 +4946,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4973,16 +4966,16 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5033,7 +5026,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5045,7 +5038,7 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5054,7 +5047,7 @@
         <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5062,18 +5055,18 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5085,17 +5078,15 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5144,13 +5135,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5165,19 +5156,19 @@
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5190,26 +5181,24 @@
         <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5257,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5278,47 +5267,51 @@
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5342,13 +5335,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5366,13 +5359,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5390,12 +5383,12 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5418,13 +5411,13 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5451,13 +5444,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5475,7 +5468,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5504,7 +5497,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5515,7 +5508,7 @@
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5524,25 +5517,23 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P40" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5586,19 +5577,19 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>40</v>
@@ -5615,7 +5606,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5626,7 +5617,7 @@
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5638,20 +5629,22 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5695,19 +5688,19 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>190</v>
+        <v>243</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>40</v>
@@ -5716,7 +5709,7 @@
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5724,18 +5717,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>40</v>
@@ -5747,17 +5740,15 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5806,13 +5797,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -5827,19 +5818,19 @@
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5852,26 +5843,24 @@
         <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5919,7 +5908,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5940,47 +5929,51 @@
         <v>40</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6004,13 +5997,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6028,13 +6021,13 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6052,12 +6045,12 @@
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6080,13 +6073,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6113,13 +6106,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6137,7 +6130,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>51</v>
@@ -6166,7 +6159,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6174,10 +6167,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6186,27 +6179,23 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6226,13 +6215,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6250,13 +6239,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6279,7 +6268,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6302,22 +6291,24 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>271</v>
+        <v>126</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6337,13 +6328,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6361,7 +6352,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6390,7 +6381,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6413,16 +6404,16 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6448,13 +6439,13 @@
         <v>40</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6472,7 +6463,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6501,7 +6492,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6524,16 +6515,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6559,13 +6550,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6583,7 +6574,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6612,7 +6603,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6635,16 +6626,16 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6670,13 +6661,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6694,7 +6685,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6723,7 +6714,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6734,7 +6725,7 @@
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6746,16 +6737,16 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6781,13 +6772,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -6805,13 +6796,13 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -6834,7 +6825,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6845,7 +6836,7 @@
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -6857,22 +6848,22 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>182</v>
+        <v>240</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6916,19 +6907,19 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>40</v>
@@ -6937,7 +6928,7 @@
         <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>40</v>
@@ -6945,7 +6936,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6956,7 +6947,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -6965,23 +6956,25 @@
         <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7025,19 +7018,19 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>190</v>
+        <v>296</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
@@ -7046,7 +7039,7 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>40</v>
@@ -7054,18 +7047,18 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>40</v>
@@ -7077,17 +7070,15 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7136,13 +7127,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7157,19 +7148,19 @@
         <v>40</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>196</v>
+        <v>95</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7182,26 +7173,24 @@
         <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7249,7 +7238,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7270,47 +7259,51 @@
         <v>40</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7334,13 +7327,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>310</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7358,13 +7351,13 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>306</v>
+        <v>196</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
@@ -7382,12 +7375,12 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7410,13 +7403,13 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7443,13 +7436,13 @@
         <v>40</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>306</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>40</v>
@@ -7467,7 +7460,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>51</v>
@@ -7496,7 +7489,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7504,10 +7497,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7516,16 +7509,16 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7576,30 +7569,139 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG58" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>40</v>
       </c>
     </row>
